--- a/Modèle-audit-SEO (1) (Enregistré automatiquement).xlsx
+++ b/Modèle-audit-SEO (1) (Enregistré automatiquement).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evangelina\Downloads\Strating P4\Starting website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evangelina\Downloads\Strating P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
